--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T08:50:22+00:00</t>
+    <t>2025-01-20T08:59:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T08:59:15+00:00</t>
+    <t>2025-01-20T09:27:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T09:27:26+00:00</t>
+    <t>2025-01-20T09:49:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T09:49:22+00:00</t>
+    <t>2025-01-20T10:56:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T10:56:59+00:00</t>
+    <t>2025-01-20T12:54:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T12:54:51+00:00</t>
+    <t>2025-01-20T14:47:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T14:47:39+00:00</t>
+    <t>2025-02-04T14:42:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T14:42:57+00:00</t>
+    <t>2025-02-04T16:03:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T16:03:40+00:00</t>
+    <t>2025-02-04T17:43:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T17:43:23+00:00</t>
+    <t>2025-02-05T08:50:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T08:50:29+00:00</t>
+    <t>2025-02-05T09:01:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T09:01:25+00:00</t>
+    <t>2025-02-05T09:11:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T09:11:38+00:00</t>
+    <t>2025-02-13T15:32:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-13T15:32:59+00:00</t>
+    <t>2025-02-16T15:11:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-16T15:11:19+00:00</t>
+    <t>2025-02-19T13:44:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-19T13:44:58+00:00</t>
+    <t>2025-02-19T14:27:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-19T14:27:03+00:00</t>
+    <t>2025-02-19T14:43:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-19T14:43:26+00:00</t>
+    <t>2025-02-21T12:43:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T12:43:39+00:00</t>
+    <t>2025-02-21T14:39:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T14:39:11+00:00</t>
+    <t>2025-02-21T15:02:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T15:02:48+00:00</t>
+    <t>2025-02-21T15:30:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T15:30:48+00:00</t>
+    <t>2025-02-24T10:42:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-24T10:42:42+00:00</t>
+    <t>2025-02-24T15:51:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-24T15:51:28+00:00</t>
+    <t>2025-04-09T16:24:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-09T16:24:06+00:00</t>
+    <t>2025-04-10T12:28:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T12:28:22+00:00</t>
+    <t>2025-04-10T13:04:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T13:04:19+00:00</t>
+    <t>2025-04-10T13:16:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T13:16:38+00:00</t>
+    <t>2025-04-10T13:34:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T13:34:50+00:00</t>
+    <t>2025-04-11T07:36:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="62">
   <si>
     <t>Property</t>
   </si>
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T07:36:18+00:00</t>
+    <t>2025-04-12T14:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -177,25 +177,13 @@
     <t>Medication.code.text</t>
   </si>
   <si>
-    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Composant_prescrit/Quantité_composant_prescrite/Nombre</t>
-  </si>
-  <si>
-    <t>Medication.amount.numerator.value</t>
-  </si>
-  <si>
-    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Composant_prescrit/Quantité_composant_prescrite/Unité</t>
-  </si>
-  <si>
-    <t>Medication.amount.numerator.code</t>
-  </si>
-  <si>
-    <t>Medication.amount.numerator.unit</t>
+    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Composant_prescrit/Quantité_composant_prescrite</t>
+  </si>
+  <si>
+    <t>not-related-to</t>
   </si>
   <si>
     <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Composant_prescrit/Référent_poso</t>
-  </si>
-  <si>
-    <t>not-related-to</t>
   </si>
   <si>
     <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Composant_prescrit/Indication</t>
@@ -533,11 +521,11 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -587,11 +575,11 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -641,14 +629,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -697,11 +685,11 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -751,64 +739,64 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -1143,7 +1131,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1185,51 +1173,10 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s" s="2">
         <v>51</v>
       </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="E6" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1276,11 +1223,11 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1373,11 +1320,11 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1427,11 +1374,11 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-12T14:29:05+00:00</t>
+    <t>2025-04-14T11:52:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T11:52:10+00:00</t>
+    <t>2025-04-14T12:50:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T12:50:20+00:00</t>
+    <t>2025-04-14T13:17:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T13:17:43+00:00</t>
+    <t>2025-04-14T13:53:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T13:53:40+00:00</t>
+    <t>2025-04-14T14:45:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T14:45:12+00:00</t>
+    <t>2025-04-14T15:18:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T15:18:15+00:00</t>
+    <t>2025-04-14T15:39:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T15:39:56+00:00</t>
+    <t>2025-04-14T16:50:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T16:50:44+00:00</t>
+    <t>2025-04-14T17:04:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T17:04:46+00:00</t>
+    <t>2025-04-15T06:58:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T06:58:45+00:00</t>
+    <t>2025-04-15T07:12:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T07:12:06+00:00</t>
+    <t>2025-04-15T07:37:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T07:37:51+00:00</t>
+    <t>2025-04-15T07:52:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T07:52:12+00:00</t>
+    <t>2025-04-15T15:09:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T15:09:09+00:00</t>
+    <t>2025-04-16T14:17:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-16T14:17:39+00:00</t>
+    <t>2025-04-24T15:43:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-24T15:43:49+00:00</t>
+    <t>2025-04-25T13:21:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-25T13:21:13+00:00</t>
+    <t>2025-04-30T11:20:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
